--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>5298.048801084685</v>
+        <v>6166.624785457079</v>
       </c>
       <c r="R2">
-        <v>5298.048801084685</v>
+        <v>55499.62306911371</v>
       </c>
       <c r="S2">
-        <v>0.1671465411334646</v>
+        <v>0.1586461837546045</v>
       </c>
       <c r="T2">
-        <v>0.1671465411334646</v>
+        <v>0.1586461837546045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>5455.165205339355</v>
+        <v>5952.058837512758</v>
       </c>
       <c r="R3">
-        <v>5455.165205339355</v>
+        <v>53568.52953761482</v>
       </c>
       <c r="S3">
-        <v>0.1721033591078704</v>
+        <v>0.1531261351073553</v>
       </c>
       <c r="T3">
-        <v>0.1721033591078704</v>
+        <v>0.1531261351073553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>3003.981815553786</v>
+        <v>3810.456967681997</v>
       </c>
       <c r="R4">
-        <v>3003.981815553786</v>
+        <v>34294.11270913797</v>
       </c>
       <c r="S4">
-        <v>0.09477171482354846</v>
+        <v>0.09803003706493287</v>
       </c>
       <c r="T4">
-        <v>0.09477171482354846</v>
+        <v>0.09803003706493285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H5">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I5">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J5">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>1034.006872888475</v>
+        <v>1204.551525866076</v>
       </c>
       <c r="R5">
-        <v>1034.006872888475</v>
+        <v>10840.96373279468</v>
       </c>
       <c r="S5">
-        <v>0.03262157046876476</v>
+        <v>0.03098899468719245</v>
       </c>
       <c r="T5">
-        <v>0.03262157046876476</v>
+        <v>0.03098899468719244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>5615.618607761578</v>
+        <v>6098.364600070183</v>
       </c>
       <c r="R6">
-        <v>5615.618607761578</v>
+        <v>54885.28140063164</v>
       </c>
       <c r="S6">
-        <v>0.1771654550293877</v>
+        <v>0.1568900824364974</v>
       </c>
       <c r="T6">
-        <v>0.1771654550293877</v>
+        <v>0.1568900824364974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>5782.152710493226</v>
+        <v>5886.173745778216</v>
       </c>
       <c r="R7">
-        <v>5782.152710493226</v>
+        <v>52975.56371200395</v>
       </c>
       <c r="S7">
-        <v>0.1824193891280432</v>
+        <v>0.1514311368329901</v>
       </c>
       <c r="T7">
-        <v>0.1824193891280432</v>
+        <v>0.1514311368329901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H8">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J8">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>3184.043185360536</v>
+        <v>3768.277897595526</v>
       </c>
       <c r="R8">
-        <v>3184.043185360536</v>
+        <v>33914.50107835973</v>
       </c>
       <c r="S8">
-        <v>0.1004524165846931</v>
+        <v>0.09694491372171964</v>
       </c>
       <c r="T8">
-        <v>0.1004524165846931</v>
+        <v>0.09694491372171964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H9">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J9">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>1095.986174147185</v>
+        <v>1191.217990370679</v>
       </c>
       <c r="R9">
-        <v>1095.986174147185</v>
+        <v>10720.96191333611</v>
       </c>
       <c r="S9">
-        <v>0.03457693672079726</v>
+        <v>0.03064596838092359</v>
       </c>
       <c r="T9">
-        <v>0.03457693672079726</v>
+        <v>0.03064596838092359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H10">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I10">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J10">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>439.8655802316594</v>
+        <v>4.909815350720001</v>
       </c>
       <c r="R10">
-        <v>439.8655802316594</v>
+        <v>44.18833815648</v>
       </c>
       <c r="S10">
-        <v>0.0138771863113707</v>
+        <v>0.0001263127716426755</v>
       </c>
       <c r="T10">
-        <v>0.0138771863113707</v>
+        <v>0.0001263127716426755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H11">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I11">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J11">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>452.9100237458912</v>
+        <v>4.738979728056</v>
       </c>
       <c r="R11">
-        <v>452.9100237458912</v>
+        <v>42.650817552504</v>
       </c>
       <c r="S11">
-        <v>0.01428872151919444</v>
+        <v>0.0001219177548339828</v>
       </c>
       <c r="T11">
-        <v>0.01428872151919444</v>
+        <v>0.0001219177548339827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H12">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I12">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J12">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>249.4027997691143</v>
+        <v>3.033854136432</v>
       </c>
       <c r="R12">
-        <v>249.4027997691143</v>
+        <v>27.304687227888</v>
       </c>
       <c r="S12">
-        <v>0.007868333587617168</v>
+        <v>7.805069994661312E-05</v>
       </c>
       <c r="T12">
-        <v>0.007868333587617168</v>
+        <v>7.805069994661311E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.158424</v>
+      </c>
+      <c r="H13">
+        <v>0.475272</v>
+      </c>
+      <c r="I13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N13">
+        <v>18.161148</v>
+      </c>
+      <c r="O13">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P13">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q13">
+        <v>0.9590539035840001</v>
+      </c>
+      <c r="R13">
+        <v>8.631485132256001</v>
+      </c>
+      <c r="S13">
+        <v>2.46731797558655E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.467317975586549E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H14">
+        <v>166.496266</v>
+      </c>
+      <c r="I14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.99161333333333</v>
+      </c>
+      <c r="N14">
+        <v>92.97484</v>
+      </c>
+      <c r="O14">
+        <v>0.3599121977633812</v>
+      </c>
+      <c r="P14">
+        <v>0.3599121977633811</v>
+      </c>
+      <c r="Q14">
+        <v>1719.995965771938</v>
+      </c>
+      <c r="R14">
+        <v>15479.96369194744</v>
+      </c>
+      <c r="S14">
+        <v>0.04424961880063662</v>
+      </c>
+      <c r="T14">
+        <v>0.0442496188006366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H15">
+        <v>166.496266</v>
+      </c>
+      <c r="I15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.913269</v>
+      </c>
+      <c r="N15">
+        <v>89.739807</v>
+      </c>
+      <c r="O15">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="P15">
+        <v>0.3473891556493311</v>
+      </c>
+      <c r="Q15">
+        <v>1660.149197451185</v>
+      </c>
+      <c r="R15">
+        <v>14941.34277706066</v>
+      </c>
+      <c r="S15">
+        <v>0.04270996595415169</v>
+      </c>
+      <c r="T15">
+        <v>0.04270996595415168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H13">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I13">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J13">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="N13">
-        <v>5.59851390404992</v>
-      </c>
-      <c r="O13">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="P13">
-        <v>0.06990688277481021</v>
-      </c>
-      <c r="Q13">
-        <v>85.84746010899248</v>
-      </c>
-      <c r="R13">
-        <v>85.84746010899248</v>
-      </c>
-      <c r="S13">
-        <v>0.002708375585248184</v>
-      </c>
-      <c r="T13">
-        <v>0.002708375585248184</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H16">
+        <v>166.496266</v>
+      </c>
+      <c r="I16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.150218</v>
+      </c>
+      <c r="N16">
+        <v>57.450654</v>
+      </c>
+      <c r="O16">
+        <v>0.2223955550134164</v>
+      </c>
+      <c r="P16">
+        <v>0.2223955550134163</v>
+      </c>
+      <c r="Q16">
+        <v>1062.813263361996</v>
+      </c>
+      <c r="R16">
+        <v>9565.319370257965</v>
+      </c>
+      <c r="S16">
+        <v>0.02734255352681724</v>
+      </c>
+      <c r="T16">
+        <v>0.02734255352681724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H17">
+        <v>166.496266</v>
+      </c>
+      <c r="I17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.053716000000001</v>
+      </c>
+      <c r="N17">
+        <v>18.161148</v>
+      </c>
+      <c r="O17">
+        <v>0.07030309157387134</v>
+      </c>
+      <c r="P17">
+        <v>0.07030309157387132</v>
+      </c>
+      <c r="Q17">
+        <v>335.9737031414854</v>
+      </c>
+      <c r="R17">
+        <v>3023.763328273369</v>
+      </c>
+      <c r="S17">
+        <v>0.008643455325999421</v>
+      </c>
+      <c r="T17">
+        <v>0.00864345532599942</v>
       </c>
     </row>
   </sheetData>
